--- a/Milestone3/BlockedInspectors.xlsx
+++ b/Milestone3/BlockedInspectors.xlsx
@@ -59,6 +59,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -434,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +465,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>512.5403981430293</v>
+        <v>241.1136460429601</v>
       </c>
     </row>
     <row r="3">
@@ -473,11 +474,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5.872537692773108</v>
+        <v>179.2182431055346</v>
       </c>
     </row>
     <row r="4">
@@ -486,11 +487,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>202.4780289772476</v>
+        <v>51.3453820020577</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>148.657983751982</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14.58138855191885</v>
       </c>
     </row>
   </sheetData>
@@ -504,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,11 +557,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>68.96246106484784</v>
+        <v>152.7638346373695</v>
       </c>
     </row>
     <row r="3">
@@ -547,7 +574,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>145.7279309824691</v>
+        <v>2.540400120211359</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +587,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>148.9788846858337</v>
+        <v>207.0513411098603</v>
       </c>
     </row>
     <row r="5">
@@ -573,7 +600,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7.58224507419618</v>
+        <v>235.607279504552</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>35.11008290447023</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>141.5370937193389</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,7 +670,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>248.5262913539738</v>
+        <v>297.9672399977543</v>
       </c>
     </row>
     <row r="3">
@@ -626,11 +679,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57.91761242877516</v>
+        <v>13.88872138174406</v>
       </c>
     </row>
     <row r="4">
@@ -639,63 +692,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.527057081636372</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>104.9487911653016</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>74.93526344746613</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>196.9131447261276</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>8.123664435172145</v>
+        <v>303.0985444959353</v>
       </c>
     </row>
   </sheetData>
@@ -709,7 +710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,11 +736,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24.45933768658222</v>
+        <v>80.39466850050219</v>
       </c>
     </row>
     <row r="3">
@@ -752,7 +753,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>418.5135132070408</v>
+        <v>69.14917143518434</v>
       </c>
     </row>
     <row r="4">
@@ -761,11 +762,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>123.991135244174</v>
+        <v>225.2295035303976</v>
       </c>
     </row>
     <row r="5">
@@ -774,11 +775,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.381638832241379</v>
+        <v>428.2819899152906</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22.42510949030725</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17.00765493750782</v>
       </c>
     </row>
   </sheetData>
@@ -818,11 +845,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>530.783648910377</v>
+        <v>302.4214644184123</v>
       </c>
     </row>
     <row r="3">
@@ -831,11 +858,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>52.50223555604259</v>
+        <v>206.0540013542703</v>
       </c>
     </row>
     <row r="4">
@@ -844,11 +871,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5.535877579095427</v>
+        <v>70.04445950246361</v>
       </c>
     </row>
   </sheetData>
@@ -888,11 +915,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>316.6987472232785</v>
+        <v>266.0356671059639</v>
       </c>
     </row>
     <row r="3">
@@ -901,11 +928,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>105.7666853717179</v>
+        <v>21.69132603594403</v>
       </c>
     </row>
     <row r="4">
@@ -918,7 +945,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>80.08083454963582</v>
+        <v>472.2881836360971</v>
       </c>
     </row>
   </sheetData>
@@ -927,6 +954,76 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Inspector</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Blocked Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>256.9059150124956</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>130.5327561968483</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>76.65451652563513</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -958,11 +1055,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16.83994280223459</v>
+        <v>38.63075958693479</v>
       </c>
     </row>
     <row r="3">
@@ -971,11 +1068,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.595283729789728</v>
+        <v>92.41015492115775</v>
       </c>
     </row>
     <row r="4">
@@ -988,7 +1085,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>103.6645158461149</v>
+        <v>234.4308109426879</v>
       </c>
     </row>
     <row r="5">
@@ -997,11 +1094,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>291.8265983286909</v>
+        <v>58.6589907830728</v>
       </c>
     </row>
     <row r="6">
@@ -1010,11 +1107,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>131.8849416732304</v>
+        <v>7.524350212817694</v>
       </c>
     </row>
     <row r="7">
@@ -1023,11 +1120,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>50.15824851243951</v>
+        <v>49.46320568448277</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +1132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1067,11 +1164,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12.04731643629188</v>
+        <v>34.32215122038562</v>
       </c>
     </row>
     <row r="3">
@@ -1080,11 +1177,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>333.3822311271539</v>
+        <v>43.33747925951573</v>
       </c>
     </row>
     <row r="4">
@@ -1093,11 +1190,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>53.66205441781165</v>
+        <v>258.2399724738167</v>
       </c>
     </row>
     <row r="5">
@@ -1106,107 +1203,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>258.9940604934351</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Inspector</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Blocked Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>128.6897897861742</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>118.1247638655257</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29.18459745728609</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>79.9378742976146</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>113.955817329969</v>
+        <v>246.7365495668134</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1221,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1250,7 +1251,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>41.23275049678045</v>
+        <v>116.9877300041626</v>
       </c>
     </row>
     <row r="3">
@@ -1263,7 +1264,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>98.67307536911272</v>
+        <v>128.447642504674</v>
       </c>
     </row>
     <row r="4">
@@ -1276,7 +1277,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>165.2755727471323</v>
+        <v>70.62509326055789</v>
       </c>
     </row>
     <row r="5">
@@ -1289,7 +1290,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>154.7704547452342</v>
+        <v>60.61583902766449</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3.912664500796041</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>26.85690277463493</v>
       </c>
     </row>
   </sheetData>
